--- a/PRODUCT PRICE LISTS.xlsx
+++ b/PRODUCT PRICE LISTS.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>PRODUK KITCHEN</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Nama Produk</t>
-  </si>
-  <si>
-    <t>Bunga</t>
-  </si>
-  <si>
-    <t>Sedana</t>
   </si>
   <si>
     <t>Telur</t>
@@ -1016,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,7 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,7 +1354,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1400,12 +1393,8 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -1422,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1432,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1443,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1452,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1463,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1472,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1483,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1492,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1503,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1512,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1523,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1532,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1543,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1552,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1563,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1572,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1583,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1592,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1603,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1612,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1623,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1632,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1643,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1652,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1663,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1672,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1683,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1692,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1703,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1712,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1723,7 +1712,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1732,7 +1721,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1743,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1752,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1763,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1772,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1783,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1792,18 +1781,18 @@
         <v>19</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1814,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1825,7 +1814,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1836,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1847,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1858,7 +1847,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1869,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1880,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1891,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1902,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1913,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1924,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1935,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1946,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1957,7 +1946,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1968,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1979,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1990,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2001,7 +1990,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2012,7 +2001,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2023,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2034,7 +2023,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2045,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2056,7 +2045,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2067,7 +2056,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2078,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2089,7 +2078,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2100,7 +2089,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2111,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2122,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2133,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2144,7 +2133,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2155,7 +2144,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2166,7 +2155,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2177,7 +2166,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2188,7 +2177,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2199,7 +2188,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2210,7 +2199,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2221,7 +2210,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2232,7 +2221,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2243,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2254,7 +2243,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2265,7 +2254,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2276,7 +2265,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2287,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2298,7 +2287,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2309,7 +2298,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2320,7 +2309,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2331,7 +2320,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2342,7 +2331,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2353,7 +2342,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2364,7 +2353,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2375,7 +2364,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2386,7 +2375,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2397,7 +2386,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2408,7 +2397,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2419,7 +2408,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2430,7 +2419,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2441,7 +2430,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2452,7 +2441,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2463,7 +2452,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2474,7 +2463,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2485,7 +2474,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2496,7 +2485,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2507,7 +2496,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
